--- a/Files/Vaccine_November 19, 2010.xlsx
+++ b/Files/Vaccine_November 19, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="302">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">$24.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">58160-0815-11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes, No Needle </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$44.50</t>
@@ -248,10 +248,13 @@
     <t xml:space="preserve">58160-0815-46</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">$89.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -272,7 +275,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -338,7 +341,7 @@
     <t xml:space="preserve">$130.27</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types16 and 18 </t>
+    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -374,7 +377,7 @@
     <t xml:space="preserve">$133.93</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y andW-135) </t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -416,7 +419,7 @@
     <t xml:space="preserve">$50.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal13-valent  (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -473,7 +476,7 @@
     <t xml:space="preserve">$69.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral,Oral </t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -623,9 +626,6 @@
     <t xml:space="preserve">200-2010-35150</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types 16 and 18 </t>
-  </si>
-  <si>
     <t xml:space="preserve">$89.17</t>
   </si>
   <si>
@@ -635,9 +635,6 @@
     <t xml:space="preserve">$33.614</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide(23 Valent)</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4739-00</t>
   </si>
   <si>
@@ -713,9 +710,6 @@
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
-  </si>
-  <si>
     <t xml:space="preserve">Decavac</t>
   </si>
   <si>
@@ -725,13 +719,10 @@
     <t xml:space="preserve">$13.82</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
-  </si>
-  <si>
     <t xml:space="preserve">$64.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 monthsand older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -749,7 +740,7 @@
     <t xml:space="preserve">200-2010-33744</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -766,7 +757,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 monthsand older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-50</t>
@@ -784,7 +775,7 @@
     <t xml:space="preserve">49281-0010-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza(Age 36 monthsand older)</t>
+    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix
@@ -806,7 +797,7 @@
     <t xml:space="preserve">200-2010-33739</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 yearsand older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -836,7 +827,7 @@
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -1518,13 +1509,13 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1">
         <v>40633</v>
@@ -1538,22 +1529,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1">
         <v>40633</v>
@@ -1567,22 +1558,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
       </c>
       <c r="G18" s="1">
         <v>40633</v>
@@ -1596,22 +1587,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1">
         <v>40633</v>
@@ -1625,22 +1616,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="1">
         <v>40633</v>
@@ -1654,22 +1645,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1">
         <v>40633</v>
@@ -1683,22 +1674,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1">
         <v>40633</v>
@@ -1712,22 +1703,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="1">
         <v>40633</v>
@@ -1741,22 +1732,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="1">
         <v>40633</v>
@@ -1770,22 +1761,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
       </c>
       <c r="G25" s="1">
         <v>40633</v>
@@ -1799,22 +1790,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="1">
         <v>40633</v>
@@ -1828,22 +1819,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1">
         <v>40633</v>
@@ -1857,51 +1848,51 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1">
         <v>40633</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1">
         <v>40633</v>
@@ -1915,51 +1906,51 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" s="1">
         <v>40633</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G31" s="1">
         <v>40633</v>
@@ -1973,22 +1964,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G32" s="1">
         <v>40633</v>
@@ -2002,22 +1993,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33" s="1">
         <v>40633</v>
@@ -2031,22 +2022,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G34" s="1">
         <v>40633</v>
@@ -2060,22 +2051,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="1">
         <v>40633</v>
@@ -2089,51 +2080,51 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G36" s="1">
         <v>40633</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G37" s="1">
         <v>40633</v>
@@ -2147,22 +2138,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" t="s">
         <v>173</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" t="s">
-        <v>172</v>
       </c>
       <c r="G38" s="1">
         <v>40633</v>
@@ -2176,22 +2167,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G39" s="1">
         <v>40633</v>
@@ -2205,22 +2196,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
         <v>178</v>
-      </c>
-      <c r="D40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" t="s">
-        <v>177</v>
       </c>
       <c r="G40" s="1">
         <v>40633</v>
@@ -2234,22 +2225,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G41" s="1">
         <v>40633</v>
@@ -2308,22 +2299,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="1">
         <v>40724</v>
@@ -2332,27 +2323,27 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1">
         <v>40724</v>
@@ -2361,12 +2352,12 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -2378,10 +2369,10 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1">
         <v>40724</v>
@@ -2390,12 +2381,12 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -2404,13 +2395,13 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1">
         <v>40724</v>
@@ -2419,27 +2410,27 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1">
         <v>40724</v>
@@ -2448,27 +2439,27 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
         <v>198</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
       </c>
       <c r="G7" s="1">
         <v>40724</v>
@@ -2477,27 +2468,27 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1">
         <v>40724</v>
@@ -2506,18 +2497,18 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
@@ -2526,7 +2517,7 @@
         <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1">
         <v>40724</v>
@@ -2535,27 +2526,27 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="1">
         <v>40724</v>
@@ -2564,7 +2555,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -2572,10 +2563,10 @@
         <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2584,7 +2575,7 @@
         <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
         <v>40724</v>
@@ -2593,27 +2584,27 @@
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>207</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>208</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>209</v>
-      </c>
-      <c r="F12" t="s">
-        <v>210</v>
       </c>
       <c r="G12" s="1">
         <v>40724</v>
@@ -2622,27 +2613,27 @@
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
         <v>211</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
       </c>
       <c r="G13" s="1">
         <v>40724</v>
@@ -2651,27 +2642,27 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="1">
         <v>40724</v>
@@ -2680,27 +2671,27 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" t="s">
         <v>214</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" t="s">
-        <v>177</v>
       </c>
       <c r="G15" s="1">
         <v>40724</v>
@@ -2709,27 +2700,27 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
         <v>218</v>
       </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" t="s">
-        <v>219</v>
-      </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="1">
         <v>40724</v>
@@ -2738,27 +2729,27 @@
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
         <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" t="s">
-        <v>172</v>
       </c>
       <c r="G17" s="1">
         <v>40724</v>
@@ -2767,27 +2758,27 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G18" s="1">
         <v>40724</v>
@@ -2796,27 +2787,27 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
         <v>223</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
         <v>225</v>
       </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
       </c>
       <c r="G19" s="1">
         <v>40724</v>
@@ -2825,27 +2816,27 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
         <v>223</v>
       </c>
-      <c r="B20" t="s">
-        <v>224</v>
-      </c>
       <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
         <v>228</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>229</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>230</v>
-      </c>
-      <c r="F20" t="s">
-        <v>231</v>
       </c>
       <c r="G20" s="1">
         <v>40724</v>
@@ -2854,27 +2845,27 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
         <v>232</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>233</v>
       </c>
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" t="s">
-        <v>235</v>
-      </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G21" s="1">
         <v>40724</v>
@@ -2883,27 +2874,27 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1">
         <v>40633</v>
@@ -2912,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2962,22 +2953,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -2986,27 +2977,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
         <v>244</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3015,27 +3006,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" t="s">
         <v>249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" t="s">
-        <v>252</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3044,27 +3035,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G5" s="1">
         <v>40602</v>
@@ -3073,27 +3064,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="s">
         <v>255</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>256</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" t="s">
-        <v>260</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
@@ -3102,53 +3093,53 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G7" s="1">
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" t="s">
         <v>268</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" t="s">
-        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -3157,68 +3148,68 @@
         <v>40602</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
         <v>272</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>273</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>274</v>
-      </c>
-      <c r="D9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" t="s">
-        <v>277</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3268,22 +3259,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -3292,27 +3283,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3321,27 +3312,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
         <v>285</v>
       </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3350,24 +3341,24 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3376,56 +3367,56 @@
         <v>40602</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3434,30 +3425,30 @@
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" t="s">
-        <v>260</v>
       </c>
       <c r="G8" s="1">
         <v>40602</v>
@@ -3466,27 +3457,27 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
         <v>297</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>301</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3495,36 +3486,36 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" t="s">
         <v>274</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" t="s">
-        <v>277</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Vaccine_November 19, 2010.xlsx
+++ b/Files/Vaccine_November 19, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="301">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -743,9 +743,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-25</t>
@@ -778,8 +776,7 @@
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative-Free</t>
+    <t xml:space="preserve">Fluarix Preservative-Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0877-46</t>
@@ -830,8 +827,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0108-10</t>
@@ -852,8 +848,7 @@
     <t xml:space="preserve">200-2010-33740</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0010-01</t>
@@ -862,8 +857,7 @@
     <t xml:space="preserve">$9.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2010-33742</t>
@@ -881,8 +875,7 @@
     <t xml:space="preserve">No Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriflu
-No Preservative</t>
+    <t xml:space="preserve">Agriflu No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">46028-0110-01</t>
@@ -894,12 +887,7 @@
     <t xml:space="preserve">Influenza  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluarix
-Preservative-free</t>
+    <t xml:space="preserve">Fluarix Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
@@ -923,8 +911,7 @@
     <t xml:space="preserve">$7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Flumist
-No Preservative</t>
+    <t xml:space="preserve">Flumist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack-1 dose sprayers</t>
@@ -3407,7 +3394,7 @@
         <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
         <v>266</v>
@@ -3436,13 +3423,13 @@
         <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
         <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
         <v>256</v>
@@ -3457,7 +3444,7 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
@@ -3465,19 +3452,19 @@
         <v>289</v>
       </c>
       <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
         <v>294</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>295</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>296</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>297</v>
-      </c>
-      <c r="F9" t="s">
-        <v>298</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3486,7 +3473,7 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -3494,13 +3481,13 @@
         <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
         <v>273</v>
@@ -3515,7 +3502,7 @@
         <v>275</v>
       </c>
       <c r="I10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
